--- a/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
+++ b/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>功能/执行功能</t>
+  </si>
+  <si>
+    <t>InHooking</t>
+  </si>
+  <si>
+    <t>家园宠物/是否在挂机中</t>
+  </si>
+  <si>
+    <t>InHookPlace</t>
+  </si>
+  <si>
+    <t>家园宠物/在挂机建筑位置</t>
   </si>
 </sst>
 </file>
@@ -749,7 +761,9 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,7 +774,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,10 +783,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1120,17 +1134,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
@@ -1240,22 +1254,152 @@
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
+++ b/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,48 @@
   </si>
   <si>
     <t>家园宠物/在挂机建筑位置</t>
+  </si>
+  <si>
+    <t>DistancePlayer</t>
+  </si>
+  <si>
+    <t>宠物/与玩家距离</t>
+  </si>
+  <si>
+    <t>ArriveFollowPos</t>
+  </si>
+  <si>
+    <t>宠物/到达跟随点</t>
+  </si>
+  <si>
+    <t>HasTarget</t>
+  </si>
+  <si>
+    <t>宠物/有攻击目标</t>
+  </si>
+  <si>
+    <t>ValidSkill</t>
+  </si>
+  <si>
+    <t>宠物/技能有效</t>
+  </si>
+  <si>
+    <t>TargetInAttackDistance</t>
+  </si>
+  <si>
+    <t>宠物/目标在攻击范围内</t>
+  </si>
+  <si>
+    <t>PetHp</t>
+  </si>
+  <si>
+    <t>宠物/血量</t>
+  </si>
+  <si>
+    <t>ValidPath</t>
+  </si>
+  <si>
+    <t>宠物/路径有效</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1183,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1317,33 +1359,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="9"/>
